--- a/outputs_report/Table_GovFin_regression_cycle_salesselect_dl.xlsx
+++ b/outputs_report/Table_GovFin_regression_cycle_salesselect_dl.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSimMacro\PenSimMacro_Data\outputs_report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED970A23-CEBB-4B6A-9098-C03A7BA4F0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sales_param" r:id="rId3" sheetId="1"/>
-    <sheet name="sales_glance" r:id="rId4" sheetId="2"/>
+    <sheet name="sales_param" sheetId="1" r:id="rId1"/>
+    <sheet name="sales_glance" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -114,11 +122,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -130,7 +137,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -148,19 +155,333 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -168,263 +489,264 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.012849629296467416</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.007438778424405822</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>1.2849629296467416E-2</v>
+      </c>
+      <c r="D2">
+        <v>9.4736554253659983E-2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>7.4387784244058222E-3</v>
+      </c>
+      <c r="G2">
         <v>1.727384331587184</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.09473655425365998</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.46729211226188605</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.2336487597471577</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>5.494627277660058E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0.23364875974715771</v>
+      </c>
+      <c r="G3">
         <v>1.9999768574314916</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.05494627277660058</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.015195819621431237</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.010321547891797145</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>1.5195819621431237E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.15251722213464824</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>1.0321547891797145E-2</v>
+      </c>
+      <c r="G4">
         <v>1.4722423206995752</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.15251722213464824</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.3957247275757057</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.294163160455671</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.18973320860273551</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>0.29416316045567098</v>
+      </c>
+      <c r="G5">
         <v>1.3452559013940142</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.18973320860273551</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.006623497314183243</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.014932489347278196</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4435628353815323</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6608929190099946</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C6">
+        <v>6.6234973141832427E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.66089291900999458</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="F6">
+        <v>1.4932489347278196E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.44356283538153229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.011139144924272955</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.016936685393318034</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.6576933246140144</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5163036984073148</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C7">
+        <v>-1.1139144924272955E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.51630369840731483</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="F7">
+        <v>1.6936685393318034E-2</v>
+      </c>
+      <c r="G7">
+        <v>-0.65769332461401442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.005304470618904157</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.012843901084399532</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="C8">
+        <v>5.3044706189041566E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.68477234762321948</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>1.2843901084399532E-2</v>
+      </c>
+      <c r="G8">
         <v>0.41299528733891266</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.6847723476232195</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.5427993266383215</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.54279932663832153</v>
+      </c>
+      <c r="D9">
+        <v>0.14376514020983819</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
         <v>0.35416198024162315</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9">
         <v>1.5326301436083076</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.1437651402098382</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.014362403167318644</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.016055750864232953</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8945332603107001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.3835270055209429</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="C10">
+        <v>1.4362403167318644E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.38352700552094288</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="F10">
+        <v>1.6055750864232953E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.89453326031070013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.0011696819808229056</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.018778542730161128</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.06228821893320948</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9510598033309428</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C11">
+        <v>-1.1696819808229056E-3</v>
+      </c>
+      <c r="D11">
+        <v>0.95105980333094275</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
+      <c r="F11">
+        <v>1.8778542730161128E-2</v>
+      </c>
+      <c r="G11">
+        <v>-6.2288218933209481E-2</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -462,130 +784,130 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.12120965607902144</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.09090654077140148</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.022606071776150632</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.999907430261546</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.05494627277660056</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>74.52226090528173</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="C2">
+        <v>9.0906540771401478E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.2606071776150632E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.9999074302615458</v>
+      </c>
+      <c r="F2">
+        <v>5.4946272776600559E-2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>74.522260905281726</v>
+      </c>
+      <c r="I2">
         <v>-143.04452181056345</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>-138.74256019710802</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.01481999995330575</v>
-      </c>
-      <c r="L2" t="n">
-        <v>29.0</v>
+      <c r="K2">
+        <v>1.4819999953305751E-2</v>
+      </c>
+      <c r="L2">
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.14789284307101086</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.053214270078901005</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.023069951814182258</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3">
+        <v>5.3214270078901005E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.3069951814182258E-2</v>
+      </c>
+      <c r="E3">
         <v>1.5620518814044189</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.22148704398418237</v>
       </c>
-      <c r="G3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>75.00018887690602</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>75.000188876906023</v>
+      </c>
+      <c r="I3">
         <v>-140.00037775381205</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>-132.83044173138632</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.014370012271134667</v>
-      </c>
-      <c r="L3" t="n">
-        <v>27.0</v>
+      <c r="K3">
+        <v>1.4370012271134667E-2</v>
+      </c>
+      <c r="L3">
+        <v>27</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.2005098613543945</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.05942336629928768</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.023454512735396053</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>5.9423366299287683E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.3454512735396053E-2</v>
+      </c>
+      <c r="E4">
         <v>1.4211839430561908</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.2711888941843641</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>51.22757588531705</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-92.4551517706341</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-87.23253958201698</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.009351940850132547</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17.0</v>
+      <c r="F4">
+        <v>0.27118889418436409</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>51.227575885317052</v>
+      </c>
+      <c r="I4">
+        <v>-92.455151770634103</v>
+      </c>
+      <c r="J4">
+        <v>-87.232539582016983</v>
+      </c>
+      <c r="K4">
+        <v>9.3519408501325473E-3</v>
+      </c>
+      <c r="L4">
+        <v>17</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>